--- a/Germany-Fachhochschule-Dashboard/Germany-Fachhochschule-Database.xlsx
+++ b/Germany-Fachhochschule-Dashboard/Germany-Fachhochschule-Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4fe18dd71254818/Desktop/Github 2023/Projects/Germany-Fachhochschule-Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4fe18dd71254818/Desktop/Github 2023/Projects/Germany-Fachhochschule-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{C5F66E4E-A132-4AD3-A4E6-AC8C1152BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC1713D-4AB3-4FB0-89CB-CC870755362E}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{C5F66E4E-A132-4AD3-A4E6-AC8C1152BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D7F7929-F46A-4036-B969-42F0A025CA78}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B88A210-3F5F-47FB-8107-A800AD6B56BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9B88A210-3F5F-47FB-8107-A800AD6B56BD}"/>
   </bookViews>
   <sheets>
     <sheet name="UAS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>uas_name</t>
   </si>
@@ -272,13 +272,34 @@
   </si>
   <si>
     <t>https://campus.hft-stuttgart.de/qisserver/pages/cs/sys/portal/hisinoneStartPage.faces?chco=y</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Robotics M.Sc.</t>
+  </si>
+  <si>
+    <t>Hof University of Applied Sciences</t>
+  </si>
+  <si>
+    <t>Hof</t>
+  </si>
+  <si>
+    <t>https://www.hof-university.com/studying-at-hof-university/our-degree-programs/artificial-intelligence-and-robotics-msc.html</t>
+  </si>
+  <si>
+    <t>https://www.daad.de/de/studieren-und-forschen-in-deutschland/studienprogramme-sprachkurse/alle-studiengaenge/detail/hochschule-fuer-angewandte-wissenschaften-hof-artificial-intelligence-and-robotics-w67120/?hec-degreeProgrammeType=w&amp;hec-subjectGroup=1-226&amp;hec-degreeType=37&amp;hec-institutionType=2&amp;hec-teachingLanguage=2&amp;hec-id=w67120&amp;hec-offset=9</t>
+  </si>
+  <si>
+    <t>https://www3.primuss.de/cgi-bin/bew_anmeldung_v2/index.pl?Session=&amp;FH=fhh&amp;Email=&amp;Portal=1&amp;Language=en</t>
+  </si>
+  <si>
+    <t>https://www.hof-university.com/studying-at-hof-university/preparing-your-stay/how-to-finance-your-studies.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +329,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +356,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,12 +382,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,12 +409,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,6 +438,56 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -437,56 +539,6 @@
         </left>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -505,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEEBAEA3-CE8E-4737-B13E-46FC42A04037}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
-  <autoFilter ref="A1:K6" xr:uid="{BEEBAEA3-CE8E-4737-B13E-46FC42A04037}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEEBAEA3-CE8E-4737-B13E-46FC42A04037}" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0">
+  <autoFilter ref="A1:K7" xr:uid="{BEEBAEA3-CE8E-4737-B13E-46FC42A04037}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6DB7FB67-18AB-4047-8AC8-A9458CCD750D}" name="uas_id"/>
     <tableColumn id="2" xr3:uid="{3A609A5F-D91F-44C6-947C-3B52F686EFF4}" name="uas_name"/>
@@ -515,8 +567,8 @@
     <tableColumn id="5" xr3:uid="{F0432478-5427-44DE-87BF-8FFB21F1CAC5}" name="city"/>
     <tableColumn id="6" xr3:uid="{9EF912B5-2297-45C6-972C-26A9FB6213AA}" name="state"/>
     <tableColumn id="7" xr3:uid="{0B824EAF-FDDA-4440-9F03-AC1EB4958A4E}" name="country"/>
-    <tableColumn id="8" xr3:uid="{757281AB-DA93-48A3-A2F3-3128C9806D85}" name="daad_url" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{D8D96CBA-D533-431A-B615-6D67ABCB1AA5}" name="website_url" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{757281AB-DA93-48A3-A2F3-3128C9806D85}" name="daad_url" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{D8D96CBA-D533-431A-B615-6D67ABCB1AA5}" name="website_url" dataDxfId="0" dataCellStyle="Hyperlink"/>
     <tableColumn id="10" xr3:uid="{72C66216-BFEC-4F04-B5FF-E51AEB565A9A}" name="language_of_instruction"/>
     <tableColumn id="11" xr3:uid="{28BAA517-04C4-442E-B10D-4462F9A9F601}" name="admission_semester"/>
   </tableColumns>
@@ -525,34 +577,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{593BB849-D5CE-485A-A138-16839114D897}" name="Table3" displayName="Table3" ref="A1:G6" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:G6" xr:uid="{593BB849-D5CE-485A-A138-16839114D897}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{593BB849-D5CE-485A-A138-16839114D897}" name="Table3" displayName="Table3" ref="A1:G7" totalsRowShown="0" tableBorderDxfId="14">
+  <autoFilter ref="A1:G7" xr:uid="{593BB849-D5CE-485A-A138-16839114D897}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CD2ECBC4-A421-4D5D-B9A2-EFBDBCE8AE2A}" name="uas_id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F54C0BA8-D57B-405E-A6A4-8BD69633A9FC}" name="semesters" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CD2ECBC4-A421-4D5D-B9A2-EFBDBCE8AE2A}" name="uas_id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F54C0BA8-D57B-405E-A6A4-8BD69633A9FC}" name="semesters" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{156EC336-652F-4C1B-B3F9-86995178EBB4}" name="tuition_per_semester"/>
     <tableColumn id="4" xr3:uid="{92E346BD-FCC1-4323-81D2-7C1A2039701B}" name="semester_contribuition"/>
     <tableColumn id="5" xr3:uid="{7BBD6FD1-8E72-4722-BFA3-F5A3BFD2A69C}" name="application_fee"/>
     <tableColumn id="6" xr3:uid="{F37ED74D-9AD5-478A-9612-2099ABB93C9D}" name="misc_contribuition"/>
-    <tableColumn id="7" xr3:uid="{3C7AC216-ADD8-4D38-95AE-EC15B8419BB9}" name="fees_link" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{3C7AC216-ADD8-4D38-95AE-EC15B8419BB9}" name="fees_link" dataDxfId="11" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB6DB6F3-A486-4152-92F6-A0E5BFC21298}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A1:I6" xr:uid="{EB6DB6F3-A486-4152-92F6-A0E5BFC21298}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB6DB6F3-A486-4152-92F6-A0E5BFC21298}" name="Table2" displayName="Table2" ref="A1:I7" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="A1:I7" xr:uid="{EB6DB6F3-A486-4152-92F6-A0E5BFC21298}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4E818049-5253-4533-B104-FC7EE14A74D5}" name="uas_id" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0D9860FD-200A-4B45-8EA3-1DFC6F36D3FD}" name="appl_choice" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DE830988-B4FA-4A35-B2ED-E2FB2784A60F}" name="appl_start_date" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BD70E327-2B62-4C90-992D-40FBB672F6B1}" name="appl_end_date" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4DDB8F6C-BCEB-4406-A169-F0FAC0A76951}" name="appl_link" dataDxfId="7" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" xr3:uid="{EB646F36-C1E4-44B8-9739-A2C1B7A80AB5}" name="primary_appl_portal" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{7362DDAE-F160-4509-8DDB-1544F5A63751}" name="primary_appl_portal_link" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4E818049-5253-4533-B104-FC7EE14A74D5}" name="uas_id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0D9860FD-200A-4B45-8EA3-1DFC6F36D3FD}" name="appl_choice" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DE830988-B4FA-4A35-B2ED-E2FB2784A60F}" name="appl_start_date" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BD70E327-2B62-4C90-992D-40FBB672F6B1}" name="appl_end_date" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4DDB8F6C-BCEB-4406-A169-F0FAC0A76951}" name="appl_link" dataDxfId="5" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{EB646F36-C1E4-44B8-9739-A2C1B7A80AB5}" name="primary_appl_portal" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{7362DDAE-F160-4509-8DDB-1544F5A63751}" name="primary_appl_portal_link" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{7769DBD6-54A8-48BB-8206-1220923100DA}" name="secondary_appl_portal"/>
-    <tableColumn id="7" xr3:uid="{9D50DD54-B5E9-4EFC-AC05-32A1C331C99D}" name="secondary_appl_portal_link" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{9D50DD54-B5E9-4EFC-AC05-32A1C331C99D}" name="secondary_appl_portal_link" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A1919C-B68B-4832-A3F6-24B3889FCE0B}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1083,6 +1135,41 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://www.daad.de/en/study-and-research-in-germany/courses-of-study-in-germany/all-study-programmes-in-germany/detail/technical-university-of-applied-sciences-wuerzburg-schweinfurt-artificial-intelligence-w65096/?hec-degreeProgrammeType=w&amp;hec-subjectGroup=1-226&amp;hec-degreeType=37&amp;hec-institutionType=2&amp;hec-teachingLanguage=2&amp;hec-id=w65096&amp;hec-offset=6" xr:uid="{2B6A40B1-EB9E-48D3-9656-4F18BF29F0BF}"/>
@@ -1095,21 +1182,23 @@
     <hyperlink ref="I5" r:id="rId8" xr:uid="{13DDDDF3-AD80-4006-8544-F72784D0C8F0}"/>
     <hyperlink ref="I6" r:id="rId9" xr:uid="{CD5B6B81-1994-4D37-8DA9-30A8F9D4F8F6}"/>
     <hyperlink ref="H6" r:id="rId10" location="tab_overview" xr:uid="{06014CC8-337B-4203-800E-0390FF4D1050}"/>
+    <hyperlink ref="I7" r:id="rId11" xr:uid="{B17E3A87-F750-46D0-97D1-506FB4D9C120}"/>
+    <hyperlink ref="H7" r:id="rId12" display="https://www.daad.de/de/studieren-und-forschen-in-deutschland/studienprogramme-sprachkurse/alle-studiengaenge/detail/hochschule-fuer-angewandte-wissenschaften-hof-artificial-intelligence-and-robotics-w67120/?hec-degreeProgrammeType=w&amp;hec-subjectGroup=1-226&amp;hec-degreeType=37&amp;hec-institutionType=2&amp;hec-teachingLanguage=2&amp;hec-id=w67120&amp;hec-offset=9" xr:uid="{F34FFA45-D09B-419E-8B70-52EFE89E752C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8433FA8D-A7F8-4564-B669-F92E801C83FC}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,6 +1349,29 @@
         <v>60</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>125</v>
+      </c>
+      <c r="E7" s="12">
+        <v>100</v>
+      </c>
+      <c r="F7" s="12">
+        <v>400</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{11117B99-ED1C-4216-B30B-E8C6167923F1}"/>
@@ -1267,20 +1379,21 @@
     <hyperlink ref="G4" r:id="rId3" xr:uid="{2DA7D772-41FD-43FA-8BD5-A76BCF182F03}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{FDA0F50F-1289-4ACB-AAA5-76C4B485C60F}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{2549962C-239C-4AA7-B315-AE0F0F235E7F}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{CEE9BADB-F786-4C3E-A3A1-76E3F720E357}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4AFC65-3914-4166-8658-C823F1203675}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1412,7 @@
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C1" t="s">
@@ -1328,7 +1441,7 @@
       <c r="A2" s="3">
         <v>1001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="7">
@@ -1340,13 +1453,13 @@
       <c r="E2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1357,7 +1470,7 @@
       <c r="A3" s="3">
         <v>1002</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="7">
@@ -1369,13 +1482,13 @@
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1386,7 +1499,7 @@
       <c r="A4" s="3">
         <v>1003</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="7">
@@ -1398,7 +1511,7 @@
       <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1415,7 +1528,7 @@
       <c r="A5" s="3">
         <v>1004</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="7">
@@ -1427,7 +1540,7 @@
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1444,7 +1557,7 @@
       <c r="A6" s="3">
         <v>1005</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="7">
@@ -1456,7 +1569,7 @@
       <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1467,6 +1580,35 @@
       </c>
       <c r="I6" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45231</v>
+      </c>
+      <c r="D7" s="15">
+        <v>45260</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1485,11 +1627,14 @@
     <hyperlink ref="G6" r:id="rId12" xr:uid="{E4F1A720-998F-449D-90A5-C9CB7972B5FF}"/>
     <hyperlink ref="I6" r:id="rId13" location="/Logon" xr:uid="{1D50E1AD-651C-4667-9852-A322F2D94696}"/>
     <hyperlink ref="I5" r:id="rId14" xr:uid="{8C98C1CC-0620-4848-B8A7-B06F464CFED6}"/>
+    <hyperlink ref="E7" r:id="rId15" xr:uid="{36011C38-73F4-4D16-80EB-5933B7B04FA0}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{024E14EB-29C5-4A3F-A025-7C5F821FD18B}"/>
+    <hyperlink ref="I7" r:id="rId17" xr:uid="{5D05A101-6DA8-462F-B778-AC5F87A04326}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>